--- a/municipal/სასტუმროები/სტუმრები/სამეგრელო-ზემო სვანეთი/აბაშა.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/სამეგრელო-ზემო სვანეთი/აბაშა.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\სამეგრელო - ზემო სვანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\სამეგრელო - ზემო სვანეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="17">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -71,7 +71,52 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით აბაშის მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით აბაშის მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -81,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +208,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -234,7 +293,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -325,23 +384,26 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -625,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -643,7 +705,7 @@
   <sheetData>
     <row r="1" spans="1:61" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -710,11 +772,11 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
@@ -730,46 +792,46 @@
       <c r="S2" s="39"/>
       <c r="T2" s="39"/>
       <c r="U2" s="39"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="42"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
     </row>
     <row r="3" spans="1:61" s="35" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -847,14 +909,14 @@
       <c r="BI3" s="8"/>
     </row>
     <row r="4" spans="1:61" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="A4" s="43">
         <v>2010</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1220,11 +1282,11 @@
       <c r="A18" s="40">
         <v>2012</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1590,11 +1652,11 @@
       <c r="A32" s="40">
         <v>2014</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
       <c r="AU32" s="19"/>
       <c r="AV32" s="19"/>
       <c r="AW32" s="19"/>
@@ -1735,11 +1797,11 @@
       <c r="A39" s="40">
         <v>2015</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1945,11 +2007,11 @@
       <c r="A46" s="40">
         <v>2016</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2130,11 +2192,11 @@
       <c r="A53" s="40">
         <v>2017</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2685,11 +2747,11 @@
       <c r="A74" s="40">
         <v>2020</v>
       </c>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2870,11 +2932,11 @@
       <c r="A81" s="40">
         <v>2021</v>
       </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -3051,16 +3113,19 @@
         <v>8</v>
       </c>
     </row>
+    <row r="88" spans="1:61" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
+  <mergeCells count="25">
+    <mergeCell ref="V2:Z2"/>
     <mergeCell ref="BE2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A11:F11"/>
@@ -3074,10 +3139,19 @@
     <mergeCell ref="AZ2:BD2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="L2:P2"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="V2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>